--- a/data/src/site/cps-normalizatize table.xlsx
+++ b/data/src/site/cps-normalizatize table.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="8775" yWindow="585" windowWidth="11400" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="FKP-FULLTIME" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="FKP-FULLTIME" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,33 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN PENGAJIAN  PROGRAM SARJANA KEUSAHAWANAN &amp; SARJANA SASTERA FKP SEPENUH MASA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKP-PHD-0001-CHRT-201720181</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>YURAN PENGAJIAN  PROGRAM SARJANA KEUSAHAWANAN &amp; SARJANA SASTERA FKP SEPENUH MASA</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FKP-PHD-0001-CHRT-201720181</t>
   </si>
   <si>
     <t xml:space="preserve">study mode </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC_RSCY_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>AC_RSCY_CODE</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">study mode : 1 = full time ,2= part time </t>
@@ -57,73 +56,58 @@
     <t xml:space="preserve">student type : 1 = local, 2 = international </t>
   </si>
   <si>
-    <t xml:space="preserve">YURAN SEMESTER 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOMESTIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrge_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendaftaran &amp; Kad Matrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMGSEB-MBA-00-H79323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bench Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMGSEB-DBA-00-H79323</t>
+    <t>YURAN SEMESTER 1</t>
+  </si>
+  <si>
+    <t>DOMESTIC</t>
+  </si>
+  <si>
+    <t>INTERNATION</t>
+  </si>
+  <si>
+    <t>chrge_code</t>
+  </si>
+  <si>
+    <t>ordinal</t>
+  </si>
+  <si>
+    <t>Pendaftaran &amp; Kad Matrik</t>
+  </si>
+  <si>
+    <t>Bench Fee</t>
   </si>
   <si>
     <t xml:space="preserve">1)Yuran Pengajian </t>
   </si>
   <si>
-    <t xml:space="preserve">TABPPS-PCA-00-H79324</t>
+    <t>TABPPS-PCA-00-H79324</t>
   </si>
   <si>
     <t xml:space="preserve">2)Yuran Research Methodology </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMGSEB-DBA-00-H79322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuran Khas Pelajar Antarabangsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMGSEB-MBA-00-H79330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perkhidmatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kesihatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABPPS-PCA-00-H79332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perpustakaan</t>
+    <t>Yuran Khas Pelajar Antarabangsa</t>
+  </si>
+  <si>
+    <t>Perkhidmatan</t>
+  </si>
+  <si>
+    <t>Kesihatan</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79332</t>
+  </si>
+  <si>
+    <t>Perpustakaan</t>
   </si>
   <si>
     <t xml:space="preserve">Insuran Berkelompok </t>
   </si>
   <si>
-    <t xml:space="preserve">Kemudahan Komputer / Peralatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelab Pelajar</t>
+    <t>Kemudahan Komputer / Peralatan</t>
+  </si>
+  <si>
+    <t>Kelab Pelajar</t>
   </si>
   <si>
     <t xml:space="preserve">Jumlah </t>
@@ -132,37 +116,37 @@
     <t xml:space="preserve">YURAN SEMESTER 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">1)Yuran Pengajian</t>
+    <t>1)Yuran Pengajian</t>
   </si>
   <si>
     <t xml:space="preserve">3)Yuran  Advanced Statistics </t>
   </si>
   <si>
-    <t xml:space="preserve">YURAN SEMESTER 3</t>
+    <t>YURAN SEMESTER 3</t>
   </si>
   <si>
     <t xml:space="preserve">2)Yuran  Advanced Statistics </t>
   </si>
   <si>
-    <t xml:space="preserve">YURAN SEMESTER 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN SEMESTER 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN SEMESTER 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN SEMESTER 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN SEMESTER 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN SEMESTER 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YURAN SEMESTER 10</t>
+    <t>YURAN SEMESTER 4</t>
+  </si>
+  <si>
+    <t>YURAN SEMESTER 5</t>
+  </si>
+  <si>
+    <t>YURAN SEMESTER 6</t>
+  </si>
+  <si>
+    <t>YURAN SEMESTER 7</t>
+  </si>
+  <si>
+    <t>YURAN SEMESTER 8</t>
+  </si>
+  <si>
+    <t>YURAN SEMESTER 9</t>
+  </si>
+  <si>
+    <t>YURAN SEMESTER 10</t>
   </si>
   <si>
     <t xml:space="preserve">YURAN PEPERIKSAAN TESIS </t>
@@ -171,40 +155,77 @@
     <t xml:space="preserve"> PEPERIKSAAN TESIS SARJANA </t>
   </si>
   <si>
-    <t xml:space="preserve">Konvokesyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*350.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alumni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMLAH KESELURUHAN (MINIMUM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMLAH KESELURUHAN (MAKSIMUM)</t>
+    <t>Konvokesyen</t>
+  </si>
+  <si>
+    <t>*350</t>
+  </si>
+  <si>
+    <t>*350.00</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>*100</t>
+  </si>
+  <si>
+    <t>*100.00</t>
+  </si>
+  <si>
+    <t>JUMLAH KESELURUHAN (MINIMUM)</t>
+  </si>
+  <si>
+    <t>JUMLAH KESELURUHAN (MAKSIMUM)</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79321</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79333</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79325</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79326</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79327</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79328</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79335</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79334</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79311</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79322</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79323</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79329</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,22 +234,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -236,7 +242,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -244,7 +250,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -265,7 +271,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,8 +283,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,232 +315,185 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -581,32 +552,327 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="31.7109375" style="1"/>
+    <col min="2" max="2" width="17.28515625"/>
+    <col min="3" max="3" width="10.85546875"/>
+    <col min="4" max="4" width="22.85546875"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +884,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -626,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,16 +918,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -686,20 +952,20 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="15">
         <v>170</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="15">
         <v>170</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17" t="n">
+      <c r="D8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="37">
         <v>1</v>
       </c>
       <c r="F8" s="12"/>
@@ -711,20 +977,20 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15">
         <v>2000</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="15">
         <v>2000</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="17" t="n">
+      <c r="D9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="37">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
@@ -736,20 +1002,20 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15">
         <v>600</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="15">
         <v>900</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="17" t="n">
+      <c r="D10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="37">
         <v>1</v>
       </c>
       <c r="F10" s="5"/>
@@ -761,20 +1027,20 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
         <v>1800</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="17" t="n">
+      <c r="D11" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="37">
         <v>1</v>
       </c>
       <c r="F11" s="5"/>
@@ -786,20 +1052,20 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
         <v>1000</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="17" t="n">
+      <c r="D12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="37">
         <v>1</v>
       </c>
       <c r="F12" s="5"/>
@@ -811,20 +1077,20 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" s="15">
         <v>200</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="15">
         <v>200</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="17" t="n">
+      <c r="D13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
       <c r="F13" s="5"/>
@@ -836,20 +1102,20 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15">
         <v>50</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="15">
         <v>100</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="n">
+      <c r="D14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="37">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -861,20 +1127,20 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15">
         <v>100</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="15">
         <v>200</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="17" t="n">
+      <c r="D15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="37">
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
@@ -886,20 +1152,20 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15">
         <v>50</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="17" t="n">
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="37">
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
@@ -911,20 +1177,20 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15">
         <v>50</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="15">
         <v>100</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="17" t="n">
+      <c r="D17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="37">
         <v>1</v>
       </c>
       <c r="F17" s="5"/>
@@ -936,20 +1202,20 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B18" s="15">
         <v>50</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="15">
         <v>100</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="17" t="n">
+      <c r="D18" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="37">
         <v>1</v>
       </c>
       <c r="F18" s="5"/>
@@ -961,20 +1227,18 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5">
         <v>3270</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>6570</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="17" t="n">
+      <c r="D19" s="16"/>
+      <c r="E19" s="37">
         <v>1</v>
       </c>
       <c r="F19" s="5"/>
@@ -986,14 +1250,14 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1003,18 +1267,20 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="15" t="n">
+        <v>31</v>
+      </c>
+      <c r="B21" s="15">
         <v>600</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="15">
         <v>900</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="n">
+      <c r="D21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="37">
         <v>2</v>
       </c>
       <c r="F21" s="5"/>
@@ -1026,18 +1292,20 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15">
         <v>900</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="n">
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="37">
         <v>2</v>
       </c>
       <c r="F22" s="5"/>
@@ -1049,18 +1317,20 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
         <v>900</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="n">
+      <c r="D23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="37">
         <v>2</v>
       </c>
       <c r="F23" s="5"/>
@@ -1072,18 +1342,20 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
         <v>1000</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="n">
+      <c r="D24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="37">
         <v>2</v>
       </c>
       <c r="F24" s="5"/>
@@ -1095,18 +1367,20 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15">
         <v>200</v>
       </c>
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="15">
         <v>200</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="n">
+      <c r="D25" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="37">
         <v>2</v>
       </c>
       <c r="F25" s="5"/>
@@ -1118,18 +1392,20 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15">
         <v>50</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="15">
         <v>100</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="n">
+      <c r="D26" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="37">
         <v>2</v>
       </c>
       <c r="F26" s="5"/>
@@ -1141,18 +1417,20 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15">
         <v>100</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="15">
         <v>200</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="n">
+      <c r="D27" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="37">
         <v>2</v>
       </c>
       <c r="F27" s="5"/>
@@ -1164,18 +1442,20 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15">
         <v>50</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17" t="n">
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="37">
         <v>2</v>
       </c>
       <c r="F28" s="5"/>
@@ -1187,18 +1467,20 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15">
         <v>50</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="15">
         <v>100</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="n">
+      <c r="D29" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="37">
         <v>2</v>
       </c>
       <c r="F29" s="5"/>
@@ -1210,18 +1492,20 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15">
         <v>50</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="15">
         <v>100</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="n">
+      <c r="D30" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="37">
         <v>2</v>
       </c>
       <c r="F30" s="5"/>
@@ -1233,24 +1517,24 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="5" t="n">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
         <v>2000</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>3500</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="17" t="n">
+      <c r="E31" s="37">
         <v>2</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="5">
         <v>2000</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="5">
         <v>3500</v>
       </c>
       <c r="H31" s="5"/>
@@ -1260,14 +1544,14 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1277,18 +1561,20 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" s="15">
         <v>600</v>
       </c>
-      <c r="C33" s="15" t="n">
+      <c r="C33" s="15">
         <v>900</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="n">
+      <c r="D33" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="37">
         <v>3</v>
       </c>
       <c r="F33" s="5"/>
@@ -1300,18 +1586,20 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="15" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="15">
         <v>900</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17" t="n">
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="37">
         <v>3</v>
       </c>
       <c r="F34" s="5"/>
@@ -1323,18 +1611,20 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15">
         <v>1000</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="n">
+      <c r="D35" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="37">
         <v>3</v>
       </c>
       <c r="F35" s="5"/>
@@ -1346,18 +1636,20 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B36" s="15">
         <v>200</v>
       </c>
-      <c r="C36" s="15" t="n">
+      <c r="C36" s="15">
         <v>200</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="n">
+      <c r="D36" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="37">
         <v>3</v>
       </c>
       <c r="F36" s="5"/>
@@ -1369,18 +1661,20 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B37" s="15">
         <v>50</v>
       </c>
-      <c r="C37" s="15" t="n">
+      <c r="C37" s="15">
         <v>100</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="n">
+      <c r="D37" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="37">
         <v>3</v>
       </c>
       <c r="F37" s="5"/>
@@ -1392,18 +1686,20 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B38" s="15">
         <v>100</v>
       </c>
-      <c r="C38" s="15" t="n">
+      <c r="C38" s="15">
         <v>200</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17" t="n">
+      <c r="D38" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="37">
         <v>3</v>
       </c>
       <c r="F38" s="5"/>
@@ -1415,18 +1711,20 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B39" s="15">
         <v>50</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17" t="n">
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="37">
         <v>3</v>
       </c>
       <c r="F39" s="5"/>
@@ -1438,18 +1736,20 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B40" s="15">
         <v>50</v>
       </c>
-      <c r="C40" s="15" t="n">
+      <c r="C40" s="15">
         <v>100</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17" t="n">
+      <c r="D40" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="37">
         <v>3</v>
       </c>
       <c r="F40" s="5"/>
@@ -1461,18 +1761,20 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B41" s="15">
         <v>50</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C41" s="15">
         <v>100</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17" t="n">
+      <c r="D41" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="37">
         <v>3</v>
       </c>
       <c r="F41" s="5"/>
@@ -1484,24 +1786,24 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="5" t="n">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
         <v>2000</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="5">
         <v>2600</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="17" t="n">
+      <c r="E42" s="37">
         <v>3</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="5">
         <v>2000</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="5">
         <v>2600</v>
       </c>
       <c r="H42" s="5"/>
@@ -1511,14 +1813,14 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1528,18 +1830,20 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B44" s="15">
         <v>600</v>
       </c>
-      <c r="C44" s="15" t="n">
+      <c r="C44" s="15">
         <v>900</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17" t="n">
+      <c r="D44" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="37">
         <v>4</v>
       </c>
       <c r="F44" s="5"/>
@@ -1551,18 +1855,20 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="15" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" s="15">
         <v>900</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17" t="n">
+      <c r="C45" s="15">
+        <v>0</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="37">
         <v>4</v>
       </c>
       <c r="F45" s="5"/>
@@ -1574,18 +1880,20 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B46" s="15">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
         <v>1000</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17" t="n">
+      <c r="D46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="37">
         <v>4</v>
       </c>
       <c r="F46" s="5"/>
@@ -1597,18 +1905,20 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B47" s="15">
         <v>200</v>
       </c>
-      <c r="C47" s="15" t="n">
+      <c r="C47" s="15">
         <v>200</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17" t="n">
+      <c r="D47" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="37">
         <v>4</v>
       </c>
       <c r="F47" s="5"/>
@@ -1620,33 +1930,37 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" s="15">
         <v>50</v>
       </c>
-      <c r="C48" s="15" t="n">
+      <c r="C48" s="15">
         <v>100</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17" t="n">
+      <c r="D48" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="37">
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B49" s="15">
         <v>100</v>
       </c>
-      <c r="C49" s="15" t="n">
+      <c r="C49" s="15">
         <v>200</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17" t="n">
+      <c r="D49" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="37">
         <v>4</v>
       </c>
       <c r="F49" s="5"/>
@@ -1658,56 +1972,62 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B50" s="15">
         <v>50</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="17" t="n">
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="37">
         <v>4</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B51" s="15">
         <v>50</v>
       </c>
-      <c r="C51" s="15" t="n">
+      <c r="C51" s="15">
         <v>100</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="17" t="n">
+      <c r="D51" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="37">
         <v>4</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B52" s="15">
         <v>50</v>
       </c>
-      <c r="C52" s="15" t="n">
+      <c r="C52" s="15">
         <v>100</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="17" t="n">
+      <c r="D52" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="37">
         <v>4</v>
       </c>
       <c r="F52" s="5"/>
@@ -1719,24 +2039,24 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="5" t="n">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="5">
         <v>2000</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="5">
         <v>2600</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="17" t="n">
+      <c r="D53" s="25"/>
+      <c r="E53" s="37">
         <v>4</v>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="5">
         <v>2000</v>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="G53" s="5">
         <v>2600</v>
       </c>
       <c r="H53" s="5"/>
@@ -1746,14 +2066,14 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -1763,18 +2083,20 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B55" s="15">
         <v>600</v>
       </c>
-      <c r="C55" s="15" t="n">
+      <c r="C55" s="15">
         <v>900</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17" t="n">
+      <c r="D55" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="37">
         <v>5</v>
       </c>
       <c r="F55" s="5"/>
@@ -1786,18 +2108,20 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B56" s="15">
+        <v>0</v>
+      </c>
+      <c r="C56" s="15">
         <v>1000</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17" t="n">
+      <c r="D56" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="37">
         <v>5</v>
       </c>
       <c r="F56" s="5"/>
@@ -1809,18 +2133,20 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B57" s="15">
         <v>200</v>
       </c>
-      <c r="C57" s="15" t="n">
+      <c r="C57" s="15">
         <v>200</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17" t="n">
+      <c r="D57" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="37">
         <v>5</v>
       </c>
       <c r="F57" s="5"/>
@@ -1832,18 +2158,20 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B58" s="15">
         <v>50</v>
       </c>
-      <c r="C58" s="15" t="n">
+      <c r="C58" s="15">
         <v>100</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17" t="n">
+      <c r="D58" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="37">
         <v>5</v>
       </c>
       <c r="F58" s="5"/>
@@ -1855,18 +2183,20 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B59" s="15">
         <v>100</v>
       </c>
-      <c r="C59" s="15" t="n">
+      <c r="C59" s="15">
         <v>200</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17" t="n">
+      <c r="D59" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="37">
         <v>5</v>
       </c>
       <c r="F59" s="5"/>
@@ -1878,18 +2208,20 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B60" s="15">
         <v>50</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17" t="n">
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="37">
         <v>5</v>
       </c>
       <c r="F60" s="5"/>
@@ -1901,18 +2233,20 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B61" s="15">
         <v>50</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17" t="n">
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="37">
         <v>5</v>
       </c>
       <c r="F61" s="5"/>
@@ -1924,18 +2258,20 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B62" s="15">
         <v>50</v>
       </c>
-      <c r="C62" s="15" t="n">
+      <c r="C62" s="15">
         <v>100</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17" t="n">
+      <c r="D62" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="37">
         <v>5</v>
       </c>
       <c r="F62" s="5"/>
@@ -1947,24 +2283,24 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="5" t="n">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="5">
         <v>1100</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="5">
         <v>2500</v>
       </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="17" t="n">
+      <c r="E63" s="37">
         <v>5</v>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="5">
         <v>1100</v>
       </c>
-      <c r="G63" s="5" t="n">
+      <c r="G63" s="5">
         <v>2500</v>
       </c>
       <c r="H63" s="5"/>
@@ -1974,14 +2310,14 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -1991,18 +2327,20 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B65" s="15">
         <v>600</v>
       </c>
-      <c r="C65" s="15" t="n">
+      <c r="C65" s="15">
         <v>900</v>
       </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17" t="n">
+      <c r="D65" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="37">
         <v>6</v>
       </c>
       <c r="F65" s="5"/>
@@ -2014,18 +2352,20 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B66" s="15">
+        <v>0</v>
+      </c>
+      <c r="C66" s="15">
         <v>1000</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17" t="n">
+      <c r="D66" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="37">
         <v>6</v>
       </c>
       <c r="F66" s="5"/>
@@ -2037,18 +2377,20 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B67" s="15">
         <v>200</v>
       </c>
-      <c r="C67" s="15" t="n">
+      <c r="C67" s="15">
         <v>200</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="17" t="n">
+      <c r="D67" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="37">
         <v>6</v>
       </c>
       <c r="F67" s="5"/>
@@ -2060,18 +2402,20 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B68" s="15">
         <v>50</v>
       </c>
-      <c r="C68" s="15" t="n">
+      <c r="C68" s="15">
         <v>100</v>
       </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17" t="n">
+      <c r="D68" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="37">
         <v>6</v>
       </c>
       <c r="F68" s="5"/>
@@ -2083,18 +2427,20 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B69" s="15">
         <v>100</v>
       </c>
-      <c r="C69" s="15" t="n">
+      <c r="C69" s="15">
         <v>200</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="17" t="n">
+      <c r="D69" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="37">
         <v>6</v>
       </c>
       <c r="F69" s="5"/>
@@ -2106,18 +2452,20 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B70" s="15">
         <v>50</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="17" t="n">
+      <c r="C70" s="15">
+        <v>0</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="37">
         <v>6</v>
       </c>
       <c r="F70" s="5"/>
@@ -2129,18 +2477,20 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B71" s="15">
         <v>50</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="17" t="n">
+      <c r="C71" s="15">
+        <v>0</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="37">
         <v>6</v>
       </c>
       <c r="F71" s="5"/>
@@ -2152,18 +2502,20 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="B72" s="15">
         <v>50</v>
       </c>
-      <c r="C72" s="15" t="n">
+      <c r="C72" s="15">
         <v>100</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="17" t="n">
+      <c r="D72" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="37">
         <v>6</v>
       </c>
       <c r="F72" s="5"/>
@@ -2175,24 +2527,24 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="5" t="n">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="5">
         <v>1100</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="5">
         <v>2500</v>
       </c>
       <c r="D73" s="16"/>
-      <c r="E73" s="17" t="n">
+      <c r="E73" s="37">
         <v>6</v>
       </c>
-      <c r="F73" s="5" t="n">
+      <c r="F73" s="5">
         <v>1100</v>
       </c>
-      <c r="G73" s="5" t="n">
+      <c r="G73" s="5">
         <v>2500</v>
       </c>
       <c r="H73" s="5"/>
@@ -2202,14 +2554,14 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -2219,18 +2571,20 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="17"/>
+      <c r="E75" s="37">
+        <v>7</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -2240,18 +2594,20 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B76" s="15">
+        <v>0</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37">
+        <v>7</v>
+      </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -2261,18 +2617,20 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B77" s="15">
+        <v>0</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37">
+        <v>7</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -2282,18 +2640,20 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="17"/>
+      <c r="B78" s="15">
+        <v>0</v>
+      </c>
+      <c r="C78" s="15">
+        <v>0</v>
+      </c>
+      <c r="D78" s="36"/>
+      <c r="E78" s="37">
+        <v>7</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -2303,18 +2663,20 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="B79" s="15">
+        <v>0</v>
+      </c>
+      <c r="C79" s="15">
+        <v>0</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="37">
+        <v>7</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -2324,18 +2686,20 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0</v>
+      </c>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37">
+        <v>7</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -2345,18 +2709,20 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="B81" s="15">
+        <v>0</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37">
+        <v>7</v>
+      </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -2366,18 +2732,20 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="B82" s="15">
+        <v>0</v>
+      </c>
+      <c r="C82" s="15">
+        <v>0</v>
+      </c>
+      <c r="D82" s="36"/>
+      <c r="E82" s="37">
+        <v>7</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -2387,20 +2755,22 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="28" t="n">
-        <f aca="false">SUM(B75:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="28" t="n">
-        <f aca="false">SUM(C75:C82)</f>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="26">
+        <f>SUM(B75:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="26">
+        <f>SUM(C75:C82)</f>
         <v>0</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="37">
+        <v>7</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -2410,14 +2780,14 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="17"/>
+      <c r="E84" s="37"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -2427,18 +2797,20 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B85" s="15">
+        <v>0</v>
+      </c>
+      <c r="C85" s="15">
+        <v>0</v>
       </c>
       <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
+      <c r="E85" s="37">
+        <v>8</v>
+      </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -2448,18 +2820,20 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B86" s="15">
+        <v>0</v>
+      </c>
+      <c r="C86" s="15">
+        <v>0</v>
       </c>
       <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
+      <c r="E86" s="37">
+        <v>8</v>
+      </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -2469,18 +2843,20 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B87" s="15">
+        <v>0</v>
+      </c>
+      <c r="C87" s="15">
+        <v>0</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="17"/>
+      <c r="E87" s="37">
+        <v>8</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -2490,18 +2866,20 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>23</v>
+      <c r="B88" s="15">
+        <v>0</v>
+      </c>
+      <c r="C88" s="15">
+        <v>0</v>
       </c>
       <c r="D88" s="16"/>
-      <c r="E88" s="17"/>
+      <c r="E88" s="37">
+        <v>8</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -2511,18 +2889,20 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B89" s="15">
+        <v>0</v>
+      </c>
+      <c r="C89" s="15">
+        <v>0</v>
       </c>
       <c r="D89" s="16"/>
-      <c r="E89" s="17"/>
+      <c r="E89" s="37">
+        <v>8</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -2532,18 +2912,20 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B90" s="15">
+        <v>0</v>
+      </c>
+      <c r="C90" s="15">
+        <v>0</v>
       </c>
       <c r="D90" s="16"/>
-      <c r="E90" s="17"/>
+      <c r="E90" s="37">
+        <v>8</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -2553,18 +2935,20 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B91" s="15">
+        <v>0</v>
+      </c>
+      <c r="C91" s="15">
+        <v>0</v>
       </c>
       <c r="D91" s="16"/>
-      <c r="E91" s="17"/>
+      <c r="E91" s="37">
+        <v>8</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -2574,18 +2958,20 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B92" s="15">
+        <v>0</v>
+      </c>
+      <c r="C92" s="15">
+        <v>0</v>
       </c>
       <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
+      <c r="E92" s="37">
+        <v>8</v>
+      </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -2595,20 +2981,22 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="28" t="n">
-        <f aca="false">SUM(B85:B92)</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="28" t="n">
-        <f aca="false">SUM(C85:C92)</f>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="26">
+        <f>SUM(B85:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="26">
+        <f>SUM(C85:C92)</f>
         <v>0</v>
       </c>
       <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
+      <c r="E93" s="37">
+        <v>8</v>
+      </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -2618,14 +3006,14 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
+      <c r="E94" s="37"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -2635,18 +3023,20 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B95" s="15">
+        <v>0</v>
+      </c>
+      <c r="C95" s="15">
+        <v>0</v>
       </c>
       <c r="D95" s="16"/>
-      <c r="E95" s="17"/>
+      <c r="E95" s="37">
+        <v>9</v>
+      </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -2656,18 +3046,20 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B96" s="15">
+        <v>0</v>
+      </c>
+      <c r="C96" s="15">
+        <v>0</v>
       </c>
       <c r="D96" s="16"/>
-      <c r="E96" s="17"/>
+      <c r="E96" s="37">
+        <v>9</v>
+      </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -2677,18 +3069,20 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B97" s="15">
+        <v>0</v>
+      </c>
+      <c r="C97" s="15">
+        <v>0</v>
       </c>
       <c r="D97" s="16"/>
-      <c r="E97" s="17"/>
+      <c r="E97" s="37">
+        <v>9</v>
+      </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -2698,18 +3092,20 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>23</v>
+      <c r="B98" s="15">
+        <v>0</v>
+      </c>
+      <c r="C98" s="15">
+        <v>0</v>
       </c>
       <c r="D98" s="16"/>
-      <c r="E98" s="17"/>
+      <c r="E98" s="37">
+        <v>9</v>
+      </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -2719,18 +3115,20 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B99" s="15">
+        <v>0</v>
+      </c>
+      <c r="C99" s="15">
+        <v>0</v>
       </c>
       <c r="D99" s="16"/>
-      <c r="E99" s="17"/>
+      <c r="E99" s="37">
+        <v>9</v>
+      </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -2740,18 +3138,20 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B100" s="15">
+        <v>0</v>
+      </c>
+      <c r="C100" s="15">
+        <v>0</v>
       </c>
       <c r="D100" s="16"/>
-      <c r="E100" s="17"/>
+      <c r="E100" s="37">
+        <v>9</v>
+      </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -2761,18 +3161,20 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B101" s="15">
+        <v>0</v>
+      </c>
+      <c r="C101" s="15">
+        <v>0</v>
       </c>
       <c r="D101" s="16"/>
-      <c r="E101" s="17"/>
+      <c r="E101" s="37">
+        <v>9</v>
+      </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -2782,18 +3184,20 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B102" s="15">
+        <v>0</v>
+      </c>
+      <c r="C102" s="15">
+        <v>0</v>
       </c>
       <c r="D102" s="16"/>
-      <c r="E102" s="17"/>
+      <c r="E102" s="37">
+        <v>9</v>
+      </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -2803,20 +3207,22 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="28" t="n">
-        <f aca="false">SUM(B95:B102)</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="28" t="n">
-        <f aca="false">SUM(C95:C102)</f>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="26">
+        <f>SUM(B95:B102)</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="26">
+        <f>SUM(C95:C102)</f>
         <v>0</v>
       </c>
       <c r="D103" s="16"/>
-      <c r="E103" s="17"/>
+      <c r="E103" s="37">
+        <v>9</v>
+      </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -2826,14 +3232,14 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="16"/>
-      <c r="E104" s="17"/>
+      <c r="E104" s="37"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -2843,18 +3249,20 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B105" s="15">
+        <v>0</v>
+      </c>
+      <c r="C105" s="15">
+        <v>0</v>
       </c>
       <c r="D105" s="16"/>
-      <c r="E105" s="17"/>
+      <c r="E105" s="37">
+        <v>10</v>
+      </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -2864,18 +3272,20 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B106" s="15">
+        <v>0</v>
+      </c>
+      <c r="C106" s="15">
+        <v>0</v>
       </c>
       <c r="D106" s="16"/>
-      <c r="E106" s="17"/>
+      <c r="E106" s="37">
+        <v>10</v>
+      </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -2885,18 +3295,20 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B107" s="15">
+        <v>0</v>
+      </c>
+      <c r="C107" s="15">
+        <v>0</v>
       </c>
       <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
+      <c r="E107" s="37">
+        <v>10</v>
+      </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -2906,18 +3318,20 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>23</v>
+      <c r="B108" s="15">
+        <v>0</v>
+      </c>
+      <c r="C108" s="15">
+        <v>0</v>
       </c>
       <c r="D108" s="16"/>
-      <c r="E108" s="17"/>
+      <c r="E108" s="37">
+        <v>10</v>
+      </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -2927,18 +3341,20 @@
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B109" s="15">
+        <v>0</v>
+      </c>
+      <c r="C109" s="15">
+        <v>0</v>
       </c>
       <c r="D109" s="16"/>
-      <c r="E109" s="17"/>
+      <c r="E109" s="37">
+        <v>10</v>
+      </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -2948,18 +3364,20 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B110" s="15">
+        <v>0</v>
+      </c>
+      <c r="C110" s="15">
+        <v>0</v>
       </c>
       <c r="D110" s="16"/>
-      <c r="E110" s="17"/>
+      <c r="E110" s="37">
+        <v>10</v>
+      </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -2969,18 +3387,20 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B111" s="15">
+        <v>0</v>
+      </c>
+      <c r="C111" s="15">
+        <v>0</v>
       </c>
       <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
+      <c r="E111" s="37">
+        <v>10</v>
+      </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -2990,18 +3410,20 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B112" s="15">
+        <v>0</v>
+      </c>
+      <c r="C112" s="15">
+        <v>0</v>
       </c>
       <c r="D112" s="16"/>
-      <c r="E112" s="17"/>
+      <c r="E112" s="37">
+        <v>10</v>
+      </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -3011,20 +3433,22 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="28" t="n">
-        <f aca="false">SUM(B105:B112)</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="28" t="n">
-        <f aca="false">SUM(C105:C112)</f>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="26">
+        <f>SUM(B105:B112)</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="26">
+        <f>SUM(C105:C112)</f>
         <v>0</v>
       </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="17"/>
+      <c r="E113" s="37">
+        <v>10</v>
+      </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -3034,148 +3458,137 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E114" s="17"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="29" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="26">
+        <v>750</v>
+      </c>
+      <c r="C116" s="26">
+        <v>750</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="31" t="s">
+      <c r="B118" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="28" t="n">
-        <v>750</v>
-      </c>
-      <c r="C116" s="28" t="n">
-        <v>750</v>
-      </c>
-      <c r="E116" s="17"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="32" t="s">
+      <c r="C118" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B117" s="33" t="s">
+      <c r="D118" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="B119" s="5">
+        <v>6020</v>
+      </c>
+      <c r="C119" s="5">
+        <v>10820</v>
+      </c>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E117" s="17"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E118" s="17"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B119" s="5" t="n">
-        <v>6020</v>
-      </c>
-      <c r="C119" s="5" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E119" s="17"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="5" t="n">
+      <c r="B120" s="5">
         <v>12220</v>
       </c>
-      <c r="C120" s="5" t="n">
+      <c r="C120" s="5">
         <v>21020</v>
       </c>
-      <c r="D120" s="24"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B104:C104"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col min="1" max="1025" width="8.28515625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col min="1" max="1025" width="8.28515625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/data/src/site/cps-normalizatize table.xlsx
+++ b/data/src/site/cps-normalizatize table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="585" windowWidth="11400" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="45" yWindow="420" windowWidth="11400" windowHeight="8070" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FKP-FULLTIME" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
   <si>
     <t>description</t>
   </si>
@@ -47,9 +47,6 @@
     <t>AC_RSCY_CODE</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t xml:space="preserve">study mode : 1 = full time ,2= part time </t>
   </si>
   <si>
@@ -158,21 +155,9 @@
     <t>Konvokesyen</t>
   </si>
   <si>
-    <t>*350</t>
-  </si>
-  <si>
-    <t>*350.00</t>
-  </si>
-  <si>
     <t>Alumni</t>
   </si>
   <si>
-    <t>*100</t>
-  </si>
-  <si>
-    <t>*100.00</t>
-  </si>
-  <si>
     <t>JUMLAH KESELURUHAN (MINIMUM)</t>
   </si>
   <si>
@@ -216,6 +201,12 @@
   </si>
   <si>
     <t>TABPPS-PCA-00-H79336</t>
+  </si>
+  <si>
+    <t>TABPPS-PCA-00-H79999</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -225,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,6 +285,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -461,9 +458,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -479,14 +473,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -857,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,16 +909,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -929,19 +926,19 @@
     </row>
     <row r="7" spans="1:13" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -954,7 +951,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="15">
         <v>170</v>
@@ -962,10 +959,10 @@
       <c r="C8" s="15">
         <v>170</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="D8" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="35">
         <v>1</v>
       </c>
       <c r="F8" s="12"/>
@@ -979,7 +976,7 @@
     </row>
     <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15">
         <v>2000</v>
@@ -987,10 +984,10 @@
       <c r="C9" s="15">
         <v>2000</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="D9" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="35">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="15">
         <v>600</v>
@@ -1012,10 +1009,10 @@
       <c r="C10" s="15">
         <v>900</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="35">
         <v>1</v>
       </c>
       <c r="F10" s="5"/>
@@ -1029,7 +1026,7 @@
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15">
         <v>0</v>
@@ -1037,10 +1034,10 @@
       <c r="C11" s="15">
         <v>1800</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="D11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="35">
         <v>1</v>
       </c>
       <c r="F11" s="5"/>
@@ -1054,7 +1051,7 @@
     </row>
     <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
@@ -1062,10 +1059,10 @@
       <c r="C12" s="15">
         <v>1000</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="D12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="F12" s="5"/>
@@ -1079,7 +1076,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15">
         <v>200</v>
@@ -1087,10 +1084,10 @@
       <c r="C13" s="15">
         <v>200</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="D13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="35">
         <v>1</v>
       </c>
       <c r="F13" s="5"/>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15">
         <v>50</v>
@@ -1112,10 +1109,10 @@
       <c r="C14" s="15">
         <v>100</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="D14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="35">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="15">
         <v>100</v>
@@ -1137,10 +1134,10 @@
       <c r="C15" s="15">
         <v>200</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="D15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="35">
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
@@ -1154,7 +1151,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="15">
         <v>50</v>
@@ -1162,10 +1159,10 @@
       <c r="C16" s="15">
         <v>0</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="D16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="35">
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
@@ -1179,7 +1176,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="15">
         <v>50</v>
@@ -1187,10 +1184,10 @@
       <c r="C17" s="15">
         <v>100</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="37">
+      <c r="D17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35">
         <v>1</v>
       </c>
       <c r="F17" s="5"/>
@@ -1204,7 +1201,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="15">
         <v>50</v>
@@ -1212,10 +1209,10 @@
       <c r="C18" s="15">
         <v>100</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="35">
         <v>1</v>
       </c>
       <c r="F18" s="5"/>
@@ -1229,16 +1226,18 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5">
+        <v>28</v>
+      </c>
+      <c r="B19" s="37">
         <v>3270</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="37">
         <v>6570</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="37">
+      <c r="D19" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="35">
         <v>1</v>
       </c>
       <c r="F19" s="5"/>
@@ -1252,12 +1251,18 @@
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="B20" s="39">
+        <v>0</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1269,7 +1274,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="15">
         <v>600</v>
@@ -1277,10 +1282,10 @@
       <c r="C21" s="15">
         <v>900</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="37">
+      <c r="D21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="35">
         <v>2</v>
       </c>
       <c r="F21" s="5"/>
@@ -1294,7 +1299,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="15">
         <v>900</v>
@@ -1302,10 +1307,10 @@
       <c r="C22" s="15">
         <v>0</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="D22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="35">
         <v>2</v>
       </c>
       <c r="F22" s="5"/>
@@ -1319,7 +1324,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15">
         <v>0</v>
@@ -1327,10 +1332,10 @@
       <c r="C23" s="15">
         <v>900</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="37">
+      <c r="D23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="35">
         <v>2</v>
       </c>
       <c r="F23" s="5"/>
@@ -1344,7 +1349,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="15">
         <v>0</v>
@@ -1352,10 +1357,10 @@
       <c r="C24" s="15">
         <v>1000</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="D24" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="35">
         <v>2</v>
       </c>
       <c r="F24" s="5"/>
@@ -1369,7 +1374,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="15">
         <v>200</v>
@@ -1377,10 +1382,10 @@
       <c r="C25" s="15">
         <v>200</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="D25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="35">
         <v>2</v>
       </c>
       <c r="F25" s="5"/>
@@ -1394,7 +1399,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="15">
         <v>50</v>
@@ -1402,10 +1407,10 @@
       <c r="C26" s="15">
         <v>100</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="37">
+      <c r="D26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="35">
         <v>2</v>
       </c>
       <c r="F26" s="5"/>
@@ -1419,7 +1424,7 @@
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="15">
         <v>100</v>
@@ -1427,10 +1432,10 @@
       <c r="C27" s="15">
         <v>200</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="D27" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="35">
         <v>2</v>
       </c>
       <c r="F27" s="5"/>
@@ -1444,7 +1449,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="15">
         <v>50</v>
@@ -1452,10 +1457,10 @@
       <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="37">
+      <c r="D28" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="35">
         <v>2</v>
       </c>
       <c r="F28" s="5"/>
@@ -1469,7 +1474,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="15">
         <v>50</v>
@@ -1477,10 +1482,10 @@
       <c r="C29" s="15">
         <v>100</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="37">
+      <c r="D29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="35">
         <v>2</v>
       </c>
       <c r="F29" s="5"/>
@@ -1494,7 +1499,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="15">
         <v>50</v>
@@ -1502,10 +1507,10 @@
       <c r="C30" s="15">
         <v>100</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="37">
+      <c r="D30" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="35">
         <v>2</v>
       </c>
       <c r="F30" s="5"/>
@@ -1519,7 +1524,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>2000</v>
@@ -1527,8 +1532,10 @@
       <c r="C31" s="5">
         <v>3500</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="37">
+      <c r="D31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="35">
         <v>2</v>
       </c>
       <c r="F31" s="5">
@@ -1546,12 +1553,18 @@
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="39">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1563,7 +1576,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="15">
         <v>600</v>
@@ -1571,10 +1584,10 @@
       <c r="C33" s="15">
         <v>900</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="37">
+      <c r="D33" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="35">
         <v>3</v>
       </c>
       <c r="F33" s="5"/>
@@ -1588,7 +1601,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="15">
         <v>900</v>
@@ -1596,10 +1609,10 @@
       <c r="C34" s="15">
         <v>0</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="37">
+      <c r="D34" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="35">
         <v>3</v>
       </c>
       <c r="F34" s="5"/>
@@ -1613,7 +1626,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="15">
         <v>0</v>
@@ -1621,10 +1634,10 @@
       <c r="C35" s="15">
         <v>1000</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="37">
+      <c r="D35" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="35">
         <v>3</v>
       </c>
       <c r="F35" s="5"/>
@@ -1638,7 +1651,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="15">
         <v>200</v>
@@ -1646,10 +1659,10 @@
       <c r="C36" s="15">
         <v>200</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="37">
+      <c r="D36" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="35">
         <v>3</v>
       </c>
       <c r="F36" s="5"/>
@@ -1663,7 +1676,7 @@
     </row>
     <row r="37" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="15">
         <v>50</v>
@@ -1671,10 +1684,10 @@
       <c r="C37" s="15">
         <v>100</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="37">
+      <c r="D37" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="35">
         <v>3</v>
       </c>
       <c r="F37" s="5"/>
@@ -1688,7 +1701,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="15">
         <v>100</v>
@@ -1696,10 +1709,10 @@
       <c r="C38" s="15">
         <v>200</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="37">
+      <c r="D38" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="35">
         <v>3</v>
       </c>
       <c r="F38" s="5"/>
@@ -1713,7 +1726,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="15">
         <v>50</v>
@@ -1721,10 +1734,10 @@
       <c r="C39" s="15">
         <v>0</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="37">
+      <c r="D39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="35">
         <v>3</v>
       </c>
       <c r="F39" s="5"/>
@@ -1738,7 +1751,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="15">
         <v>50</v>
@@ -1746,10 +1759,10 @@
       <c r="C40" s="15">
         <v>100</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="37">
+      <c r="D40" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="35">
         <v>3</v>
       </c>
       <c r="F40" s="5"/>
@@ -1763,7 +1776,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="15">
         <v>50</v>
@@ -1771,10 +1784,10 @@
       <c r="C41" s="15">
         <v>100</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="37">
+      <c r="D41" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="35">
         <v>3</v>
       </c>
       <c r="F41" s="5"/>
@@ -1788,7 +1801,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="5">
         <v>2000</v>
@@ -1796,8 +1809,10 @@
       <c r="C42" s="5">
         <v>2600</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="37">
+      <c r="D42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="35">
         <v>3</v>
       </c>
       <c r="F42" s="5">
@@ -1815,12 +1830,18 @@
     </row>
     <row r="43" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="B43" s="39">
+        <v>0</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1832,7 +1853,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="15">
         <v>600</v>
@@ -1840,10 +1861,10 @@
       <c r="C44" s="15">
         <v>900</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="37">
+      <c r="D44" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="35">
         <v>4</v>
       </c>
       <c r="F44" s="5"/>
@@ -1857,7 +1878,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="15">
         <v>900</v>
@@ -1865,10 +1886,10 @@
       <c r="C45" s="15">
         <v>0</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="37">
+      <c r="D45" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="35">
         <v>4</v>
       </c>
       <c r="F45" s="5"/>
@@ -1882,7 +1903,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="15">
         <v>0</v>
@@ -1890,10 +1911,10 @@
       <c r="C46" s="15">
         <v>1000</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="37">
+      <c r="D46" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="35">
         <v>4</v>
       </c>
       <c r="F46" s="5"/>
@@ -1907,7 +1928,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="15">
         <v>200</v>
@@ -1915,10 +1936,10 @@
       <c r="C47" s="15">
         <v>200</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="37">
+      <c r="D47" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="35">
         <v>4</v>
       </c>
       <c r="F47" s="5"/>
@@ -1932,7 +1953,7 @@
     </row>
     <row r="48" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="15">
         <v>50</v>
@@ -1940,16 +1961,16 @@
       <c r="C48" s="15">
         <v>100</v>
       </c>
-      <c r="D48" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="37">
+      <c r="D48" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="15">
         <v>100</v>
@@ -1957,10 +1978,10 @@
       <c r="C49" s="15">
         <v>200</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="37">
+      <c r="D49" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="35">
         <v>4</v>
       </c>
       <c r="F49" s="5"/>
@@ -1974,7 +1995,7 @@
     </row>
     <row r="50" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="15">
         <v>50</v>
@@ -1982,16 +2003,16 @@
       <c r="C50" s="15">
         <v>0</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="37">
+      <c r="D50" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="15">
         <v>50</v>
@@ -1999,10 +2020,10 @@
       <c r="C51" s="15">
         <v>100</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="37">
+      <c r="D51" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="35">
         <v>4</v>
       </c>
       <c r="F51" s="24"/>
@@ -2016,7 +2037,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="15">
         <v>50</v>
@@ -2024,10 +2045,10 @@
       <c r="C52" s="15">
         <v>100</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="37">
+      <c r="D52" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="35">
         <v>4</v>
       </c>
       <c r="F52" s="5"/>
@@ -2041,7 +2062,7 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="5">
         <v>2000</v>
@@ -2049,8 +2070,10 @@
       <c r="C53" s="5">
         <v>2600</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="37">
+      <c r="D53" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="35">
         <v>4</v>
       </c>
       <c r="F53" s="5">
@@ -2068,12 +2091,18 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="39">
+        <v>0</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="26">
+        <v>0</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -2085,7 +2114,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" s="15">
         <v>600</v>
@@ -2093,10 +2122,10 @@
       <c r="C55" s="15">
         <v>900</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="37">
+      <c r="D55" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="35">
         <v>5</v>
       </c>
       <c r="F55" s="5"/>
@@ -2110,7 +2139,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -2118,10 +2147,10 @@
       <c r="C56" s="15">
         <v>1000</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="37">
+      <c r="D56" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="35">
         <v>5</v>
       </c>
       <c r="F56" s="5"/>
@@ -2135,7 +2164,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="15">
         <v>200</v>
@@ -2143,10 +2172,10 @@
       <c r="C57" s="15">
         <v>200</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="37">
+      <c r="D57" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="35">
         <v>5</v>
       </c>
       <c r="F57" s="5"/>
@@ -2160,7 +2189,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" s="15">
         <v>50</v>
@@ -2168,10 +2197,10 @@
       <c r="C58" s="15">
         <v>100</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="37">
+      <c r="D58" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="35">
         <v>5</v>
       </c>
       <c r="F58" s="5"/>
@@ -2185,7 +2214,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="15">
         <v>100</v>
@@ -2193,10 +2222,10 @@
       <c r="C59" s="15">
         <v>200</v>
       </c>
-      <c r="D59" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="37">
+      <c r="D59" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="35">
         <v>5</v>
       </c>
       <c r="F59" s="5"/>
@@ -2210,7 +2239,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="15">
         <v>50</v>
@@ -2218,10 +2247,10 @@
       <c r="C60" s="15">
         <v>0</v>
       </c>
-      <c r="D60" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="37">
+      <c r="D60" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="35">
         <v>5</v>
       </c>
       <c r="F60" s="5"/>
@@ -2235,7 +2264,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="15">
         <v>50</v>
@@ -2243,10 +2272,10 @@
       <c r="C61" s="15">
         <v>0</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="37">
+      <c r="D61" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="35">
         <v>5</v>
       </c>
       <c r="F61" s="5"/>
@@ -2260,7 +2289,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" s="15">
         <v>50</v>
@@ -2268,10 +2297,10 @@
       <c r="C62" s="15">
         <v>100</v>
       </c>
-      <c r="D62" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="37">
+      <c r="D62" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="35">
         <v>5</v>
       </c>
       <c r="F62" s="5"/>
@@ -2285,7 +2314,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" s="5">
         <v>1100</v>
@@ -2293,8 +2322,10 @@
       <c r="C63" s="5">
         <v>2500</v>
       </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="37">
+      <c r="D63" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="35">
         <v>5</v>
       </c>
       <c r="F63" s="5">
@@ -2312,12 +2343,18 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+        <v>36</v>
+      </c>
+      <c r="B64" s="39">
+        <v>0</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="26">
+        <v>0</v>
+      </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -2329,7 +2366,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" s="15">
         <v>600</v>
@@ -2337,10 +2374,10 @@
       <c r="C65" s="15">
         <v>900</v>
       </c>
-      <c r="D65" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="37">
+      <c r="D65" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="35">
         <v>6</v>
       </c>
       <c r="F65" s="5"/>
@@ -2354,7 +2391,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="15">
         <v>0</v>
@@ -2362,10 +2399,10 @@
       <c r="C66" s="15">
         <v>1000</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="37">
+      <c r="D66" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="35">
         <v>6</v>
       </c>
       <c r="F66" s="5"/>
@@ -2379,7 +2416,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="15">
         <v>200</v>
@@ -2387,10 +2424,10 @@
       <c r="C67" s="15">
         <v>200</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="37">
+      <c r="D67" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="35">
         <v>6</v>
       </c>
       <c r="F67" s="5"/>
@@ -2404,7 +2441,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" s="15">
         <v>50</v>
@@ -2412,10 +2449,10 @@
       <c r="C68" s="15">
         <v>100</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" s="37">
+      <c r="D68" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="35">
         <v>6</v>
       </c>
       <c r="F68" s="5"/>
@@ -2429,7 +2466,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="15">
         <v>100</v>
@@ -2437,10 +2474,10 @@
       <c r="C69" s="15">
         <v>200</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="37">
+      <c r="D69" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="35">
         <v>6</v>
       </c>
       <c r="F69" s="5"/>
@@ -2454,7 +2491,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="15">
         <v>50</v>
@@ -2462,10 +2499,10 @@
       <c r="C70" s="15">
         <v>0</v>
       </c>
-      <c r="D70" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="37">
+      <c r="D70" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="35">
         <v>6</v>
       </c>
       <c r="F70" s="5"/>
@@ -2479,7 +2516,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="15">
         <v>50</v>
@@ -2487,10 +2524,10 @@
       <c r="C71" s="15">
         <v>0</v>
       </c>
-      <c r="D71" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="37">
+      <c r="D71" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="35">
         <v>6</v>
       </c>
       <c r="F71" s="5"/>
@@ -2504,7 +2541,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="15">
         <v>50</v>
@@ -2512,10 +2549,10 @@
       <c r="C72" s="15">
         <v>100</v>
       </c>
-      <c r="D72" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="37">
+      <c r="D72" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="35">
         <v>6</v>
       </c>
       <c r="F72" s="5"/>
@@ -2529,7 +2566,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="5">
         <v>1100</v>
@@ -2537,8 +2574,10 @@
       <c r="C73" s="5">
         <v>2500</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="37">
+      <c r="D73" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="35">
         <v>6</v>
       </c>
       <c r="F73" s="5">
@@ -2556,12 +2595,16 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="B74" s="39">
+        <v>0</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="26">
+        <v>0</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -2573,7 +2616,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="15">
         <v>0</v>
@@ -2582,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="37">
+      <c r="E75" s="35">
         <v>7</v>
       </c>
       <c r="F75" s="5"/>
@@ -2596,7 +2639,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="15">
         <v>0</v>
@@ -2604,8 +2647,8 @@
       <c r="C76" s="15">
         <v>0</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="37">
+      <c r="D76" s="34"/>
+      <c r="E76" s="35">
         <v>7</v>
       </c>
       <c r="F76" s="5"/>
@@ -2619,7 +2662,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="15">
         <v>0</v>
@@ -2627,8 +2670,8 @@
       <c r="C77" s="15">
         <v>0</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37">
+      <c r="D77" s="34"/>
+      <c r="E77" s="35">
         <v>7</v>
       </c>
       <c r="F77" s="5"/>
@@ -2642,7 +2685,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
@@ -2650,8 +2693,8 @@
       <c r="C78" s="15">
         <v>0</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="37">
+      <c r="D78" s="34"/>
+      <c r="E78" s="35">
         <v>7</v>
       </c>
       <c r="F78" s="5"/>
@@ -2665,7 +2708,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="15">
         <v>0</v>
@@ -2673,8 +2716,8 @@
       <c r="C79" s="15">
         <v>0</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37">
+      <c r="D79" s="34"/>
+      <c r="E79" s="35">
         <v>7</v>
       </c>
       <c r="F79" s="5"/>
@@ -2688,7 +2731,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="15">
         <v>0</v>
@@ -2696,8 +2739,8 @@
       <c r="C80" s="15">
         <v>0</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37">
+      <c r="D80" s="34"/>
+      <c r="E80" s="35">
         <v>7</v>
       </c>
       <c r="F80" s="5"/>
@@ -2711,7 +2754,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81" s="15">
         <v>0</v>
@@ -2719,8 +2762,8 @@
       <c r="C81" s="15">
         <v>0</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37">
+      <c r="D81" s="34"/>
+      <c r="E81" s="35">
         <v>7</v>
       </c>
       <c r="F81" s="5"/>
@@ -2734,7 +2777,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" s="15">
         <v>0</v>
@@ -2742,8 +2785,8 @@
       <c r="C82" s="15">
         <v>0</v>
       </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="37">
+      <c r="D82" s="34"/>
+      <c r="E82" s="35">
         <v>7</v>
       </c>
       <c r="F82" s="5"/>
@@ -2757,18 +2800,16 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" s="26">
-        <f>SUM(B75:B82)</f>
         <v>0</v>
       </c>
       <c r="C83" s="26">
-        <f>SUM(C75:C82)</f>
         <v>0</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="37">
+      <c r="E83" s="35">
         <v>7</v>
       </c>
       <c r="F83" s="5"/>
@@ -2782,12 +2823,16 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="B84" s="39">
+        <v>0</v>
+      </c>
+      <c r="C84" s="39"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="37"/>
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -2799,7 +2844,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
@@ -2808,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="16"/>
-      <c r="E85" s="37">
+      <c r="E85" s="35">
         <v>8</v>
       </c>
       <c r="F85" s="5"/>
@@ -2822,7 +2867,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
@@ -2831,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="16"/>
-      <c r="E86" s="37">
+      <c r="E86" s="35">
         <v>8</v>
       </c>
       <c r="F86" s="5"/>
@@ -2845,7 +2890,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" s="15">
         <v>0</v>
@@ -2854,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="37">
+      <c r="E87" s="35">
         <v>8</v>
       </c>
       <c r="F87" s="5"/>
@@ -2868,7 +2913,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" s="15">
         <v>0</v>
@@ -2877,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="16"/>
-      <c r="E88" s="37">
+      <c r="E88" s="35">
         <v>8</v>
       </c>
       <c r="F88" s="5"/>
@@ -2891,7 +2936,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
@@ -2900,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="16"/>
-      <c r="E89" s="37">
+      <c r="E89" s="35">
         <v>8</v>
       </c>
       <c r="F89" s="5"/>
@@ -2914,7 +2959,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" s="15">
         <v>0</v>
@@ -2923,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="16"/>
-      <c r="E90" s="37">
+      <c r="E90" s="35">
         <v>8</v>
       </c>
       <c r="F90" s="5"/>
@@ -2937,7 +2982,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" s="15">
         <v>0</v>
@@ -2946,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="16"/>
-      <c r="E91" s="37">
+      <c r="E91" s="35">
         <v>8</v>
       </c>
       <c r="F91" s="5"/>
@@ -2960,7 +3005,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92" s="15">
         <v>0</v>
@@ -2969,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="16"/>
-      <c r="E92" s="37">
+      <c r="E92" s="35">
         <v>8</v>
       </c>
       <c r="F92" s="5"/>
@@ -2983,18 +3028,16 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93" s="26">
-        <f>SUM(B85:B92)</f>
         <v>0</v>
       </c>
       <c r="C93" s="26">
-        <f>SUM(C85:C92)</f>
         <v>0</v>
       </c>
       <c r="D93" s="16"/>
-      <c r="E93" s="37">
+      <c r="E93" s="35">
         <v>8</v>
       </c>
       <c r="F93" s="5"/>
@@ -3008,12 +3051,16 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="B94" s="39">
+        <v>0</v>
+      </c>
+      <c r="C94" s="39"/>
       <c r="D94" s="16"/>
-      <c r="E94" s="37"/>
+      <c r="E94" s="26">
+        <v>0</v>
+      </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3025,7 +3072,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" s="15">
         <v>0</v>
@@ -3034,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="16"/>
-      <c r="E95" s="37">
+      <c r="E95" s="35">
         <v>9</v>
       </c>
       <c r="F95" s="5"/>
@@ -3048,7 +3095,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96" s="15">
         <v>0</v>
@@ -3057,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="16"/>
-      <c r="E96" s="37">
+      <c r="E96" s="35">
         <v>9</v>
       </c>
       <c r="F96" s="5"/>
@@ -3071,7 +3118,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97" s="15">
         <v>0</v>
@@ -3080,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="16"/>
-      <c r="E97" s="37">
+      <c r="E97" s="35">
         <v>9</v>
       </c>
       <c r="F97" s="5"/>
@@ -3094,7 +3141,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98" s="15">
         <v>0</v>
@@ -3103,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="16"/>
-      <c r="E98" s="37">
+      <c r="E98" s="35">
         <v>9</v>
       </c>
       <c r="F98" s="5"/>
@@ -3117,7 +3164,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="15">
         <v>0</v>
@@ -3126,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="16"/>
-      <c r="E99" s="37">
+      <c r="E99" s="35">
         <v>9</v>
       </c>
       <c r="F99" s="5"/>
@@ -3140,7 +3187,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
@@ -3149,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="16"/>
-      <c r="E100" s="37">
+      <c r="E100" s="35">
         <v>9</v>
       </c>
       <c r="F100" s="5"/>
@@ -3163,7 +3210,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
@@ -3172,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="16"/>
-      <c r="E101" s="37">
+      <c r="E101" s="35">
         <v>9</v>
       </c>
       <c r="F101" s="5"/>
@@ -3186,7 +3233,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="15">
         <v>0</v>
@@ -3195,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="D102" s="16"/>
-      <c r="E102" s="37">
+      <c r="E102" s="35">
         <v>9</v>
       </c>
       <c r="F102" s="5"/>
@@ -3209,18 +3256,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" s="26">
-        <f>SUM(B95:B102)</f>
         <v>0</v>
       </c>
       <c r="C103" s="26">
-        <f>SUM(C95:C102)</f>
         <v>0</v>
       </c>
       <c r="D103" s="16"/>
-      <c r="E103" s="37">
+      <c r="E103" s="35">
         <v>9</v>
       </c>
       <c r="F103" s="5"/>
@@ -3234,12 +3279,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="B104" s="39">
+        <v>0</v>
+      </c>
+      <c r="C104" s="39"/>
       <c r="D104" s="16"/>
-      <c r="E104" s="37"/>
+      <c r="E104" s="26">
+        <v>0</v>
+      </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -3251,7 +3300,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105" s="15">
         <v>0</v>
@@ -3260,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="D105" s="16"/>
-      <c r="E105" s="37">
+      <c r="E105" s="35">
         <v>10</v>
       </c>
       <c r="F105" s="5"/>
@@ -3274,7 +3323,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
@@ -3283,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="16"/>
-      <c r="E106" s="37">
+      <c r="E106" s="35">
         <v>10</v>
       </c>
       <c r="F106" s="5"/>
@@ -3297,7 +3346,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
@@ -3306,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="16"/>
-      <c r="E107" s="37">
+      <c r="E107" s="35">
         <v>10</v>
       </c>
       <c r="F107" s="5"/>
@@ -3320,7 +3369,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" s="15">
         <v>0</v>
@@ -3329,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="16"/>
-      <c r="E108" s="37">
+      <c r="E108" s="35">
         <v>10</v>
       </c>
       <c r="F108" s="5"/>
@@ -3343,7 +3392,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="15">
         <v>0</v>
@@ -3352,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="16"/>
-      <c r="E109" s="37">
+      <c r="E109" s="35">
         <v>10</v>
       </c>
       <c r="F109" s="5"/>
@@ -3366,7 +3415,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110" s="15">
         <v>0</v>
@@ -3375,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="16"/>
-      <c r="E110" s="37">
+      <c r="E110" s="35">
         <v>10</v>
       </c>
       <c r="F110" s="5"/>
@@ -3389,7 +3438,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111" s="15">
         <v>0</v>
@@ -3398,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="16"/>
-      <c r="E111" s="37">
+      <c r="E111" s="35">
         <v>10</v>
       </c>
       <c r="F111" s="5"/>
@@ -3412,7 +3461,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
@@ -3421,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="16"/>
-      <c r="E112" s="37">
+      <c r="E112" s="35">
         <v>10</v>
       </c>
       <c r="F112" s="5"/>
@@ -3433,20 +3482,18 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="26">
-        <f>SUM(B105:B112)</f>
         <v>0</v>
       </c>
       <c r="C113" s="26">
-        <f>SUM(C105:C112)</f>
         <v>0</v>
       </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="37">
+      <c r="E113" s="35">
         <v>10</v>
       </c>
       <c r="F113" s="5"/>
@@ -3458,89 +3505,107 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E114" s="17"/>
+    <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="26">
+        <v>0</v>
+      </c>
+      <c r="C114" s="26">
+        <v>0</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E115" s="17"/>
+      <c r="B115" s="26">
+        <v>750</v>
+      </c>
+      <c r="C115" s="26">
+        <v>750</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B116" s="26">
-        <v>750</v>
-      </c>
-      <c r="C116" s="26">
-        <v>750</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E116" s="17"/>
+      <c r="B116" s="30">
+        <v>350</v>
+      </c>
+      <c r="C116" s="30">
+        <v>350</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E117" s="17"/>
+      <c r="B117" s="30">
+        <v>100</v>
+      </c>
+      <c r="C117" s="30">
+        <v>100</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E118" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="B118" s="5">
+        <v>6020</v>
+      </c>
+      <c r="C118" s="5">
+        <v>10820</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>50</v>
+      <c r="A119" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="B119" s="5">
-        <v>6020</v>
+        <v>12220</v>
       </c>
       <c r="C119" s="5">
-        <v>10820</v>
-      </c>
-      <c r="E119" s="17"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="5">
-        <v>12220</v>
-      </c>
-      <c r="C120" s="5">
         <v>21020</v>
       </c>
-      <c r="D120" s="23"/>
-      <c r="E120" s="17"/>
+      <c r="D119" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="26">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3548,11 +3613,11 @@
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B64:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3564,7 +3629,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
